--- a/data/league_data/england/20/england_passing.xlsx
+++ b/data/league_data/england/20/england_passing.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/england/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B18751C6-CC38-B345-8243-FEA5CEE13B99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E278DF86-C4C5-A746-B6E7-8884B9307201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -1570,9 +1570,6 @@
     <t>Ryan Sessegnon</t>
   </si>
   <si>
-    <t>Jota</t>
-  </si>
-  <si>
     <t>Alireza Jahanbakhsh</t>
   </si>
   <si>
@@ -1826,12 +1823,15 @@
   </si>
   <si>
     <t>Ralf Fährmann</t>
+  </si>
+  <si>
+    <t>Jota Peleteiro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2692,14 +2692,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="B415" sqref="B415"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -2729,7 +2729,7 @@
     <col min="30" max="30" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="111" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="114" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -13217,7 +13217,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -13309,7 +13309,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="116" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="118" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="119" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="122" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="124" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="125" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="126" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="127" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -14413,7 +14413,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -14781,7 +14781,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -14873,7 +14873,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -15149,7 +15149,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="139" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -15517,7 +15517,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="140" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -15609,7 +15609,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="141" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="142" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -15793,7 +15793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -15885,7 +15885,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="144" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="145" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -16069,7 +16069,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="146" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -16161,7 +16161,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="147" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="148" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="149" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -16437,7 +16437,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="150" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -16621,7 +16621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="153" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -16805,7 +16805,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="154" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -16989,7 +16989,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="156" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -17081,7 +17081,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="157" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -17173,7 +17173,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="158" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -17265,7 +17265,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="159" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="160" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -17449,7 +17449,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="161" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -17541,7 +17541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="163" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="164" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -17817,7 +17817,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -17909,7 +17909,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="166" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -18001,7 +18001,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="167" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -18093,7 +18093,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -18185,7 +18185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="169" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -18277,7 +18277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -18369,7 +18369,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="171" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -18461,7 +18461,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="172" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -18645,7 +18645,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -18737,7 +18737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -18829,7 +18829,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -18921,7 +18921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="177" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="178" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -19105,7 +19105,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="179" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -19197,7 +19197,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="180" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -19289,7 +19289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="181" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="182" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -19473,7 +19473,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="183" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -19565,7 +19565,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="184" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -19657,7 +19657,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -19749,7 +19749,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -19841,7 +19841,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="187" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -19933,7 +19933,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="188" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -20025,7 +20025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -20117,7 +20117,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="190" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -20209,7 +20209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -20301,7 +20301,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="192" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="193" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -20485,7 +20485,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -20577,7 +20577,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="196" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -20761,7 +20761,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -20853,7 +20853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="198" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -20945,7 +20945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -21037,7 +21037,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="200" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -21129,7 +21129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -21221,7 +21221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -21313,7 +21313,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="203" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -21405,7 +21405,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -21497,7 +21497,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="205" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -21589,7 +21589,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="206" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -21681,7 +21681,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="207" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -21773,7 +21773,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="208" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -21865,7 +21865,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="209" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -21957,7 +21957,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="210" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -22049,7 +22049,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -22141,7 +22141,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="212" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -22233,7 +22233,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="213" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -22325,7 +22325,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="214" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -22417,7 +22417,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="215" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -22509,7 +22509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -22601,7 +22601,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="217" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -22693,7 +22693,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="218" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -22785,7 +22785,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="219" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -22877,7 +22877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -22969,7 +22969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="221" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -23061,7 +23061,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -23153,7 +23153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -23245,7 +23245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -23337,7 +23337,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="225" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -23429,7 +23429,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -23521,7 +23521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -23613,7 +23613,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -23705,7 +23705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -23797,7 +23797,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -23889,7 +23889,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="231" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -23981,7 +23981,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="232" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -24073,7 +24073,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="233" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -24165,7 +24165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="234" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -24257,7 +24257,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="235" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -24349,7 +24349,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="236" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -24441,7 +24441,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="237" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -24533,7 +24533,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="238" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -24625,7 +24625,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="239" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -24717,7 +24717,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="240" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -24809,7 +24809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="241" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -24901,7 +24901,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="242" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -24993,7 +24993,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="243" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -25085,7 +25085,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="244" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -25177,7 +25177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="245" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -25269,7 +25269,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="246" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -25361,7 +25361,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="247" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -25453,7 +25453,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="248" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -25545,7 +25545,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="249" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -25637,7 +25637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -25729,7 +25729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="251" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -25821,7 +25821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -25913,7 +25913,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="253" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -26005,7 +26005,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="254" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -26097,7 +26097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="255" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -26189,7 +26189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="256" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -26281,7 +26281,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="257" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -26373,7 +26373,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="258" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -26465,7 +26465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="259" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -26557,7 +26557,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -26649,7 +26649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="261" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -26741,7 +26741,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="262" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -26833,7 +26833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="263" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -26925,7 +26925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="264" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -27017,7 +27017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="265" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -27109,7 +27109,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="266" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -27201,7 +27201,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="267" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -27293,7 +27293,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="268" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -27385,7 +27385,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -27477,7 +27477,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="270" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -27569,7 +27569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -27661,7 +27661,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="272" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -27753,7 +27753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -27845,7 +27845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -27937,7 +27937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -28029,7 +28029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -28121,7 +28121,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="277" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -28213,7 +28213,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="278" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -28305,7 +28305,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="279" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -28397,7 +28397,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="280" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -28489,7 +28489,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="281" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -28581,7 +28581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -28673,7 +28673,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="283" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -28765,7 +28765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="284" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -28857,7 +28857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="285" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -28949,7 +28949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="286" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -29041,7 +29041,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="287" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -29133,7 +29133,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="288" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -29225,7 +29225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="289" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -29317,7 +29317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -29409,7 +29409,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="291" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -29501,7 +29501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -29593,7 +29593,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="293" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -29685,7 +29685,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="294" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -29777,7 +29777,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="295" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -29869,7 +29869,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="296" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -29961,7 +29961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="297" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -30053,7 +30053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -30145,7 +30145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -30237,7 +30237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -30329,7 +30329,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="301" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -30421,7 +30421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="302" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -30513,7 +30513,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="303" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -30605,7 +30605,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="304" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -30697,7 +30697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -30789,7 +30789,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="306" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -30881,7 +30881,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="307" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -30973,7 +30973,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="308" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -31065,7 +31065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="309" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -31157,7 +31157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -31249,7 +31249,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="311" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -31341,7 +31341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="312" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -31433,7 +31433,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="313" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -31525,7 +31525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -31617,7 +31617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="315" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -31709,7 +31709,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="316" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -31801,7 +31801,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="317" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -31893,7 +31893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -31985,7 +31985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="319" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -32077,7 +32077,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="320" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -32169,7 +32169,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="321" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -32261,7 +32261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="322" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -32353,7 +32353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -32445,7 +32445,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="324" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -32537,7 +32537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="325" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -32629,7 +32629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="326" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -32721,7 +32721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="327" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -32813,7 +32813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -32905,7 +32905,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="329" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -32997,7 +32997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -33089,7 +33089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="331" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -33181,7 +33181,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="332" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -33273,7 +33273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -33365,7 +33365,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="334" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -33457,7 +33457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="335" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -33549,7 +33549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -33641,7 +33641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -33733,7 +33733,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="338" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -33825,7 +33825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -33917,7 +33917,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="340" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -34009,7 +34009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -34101,7 +34101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -34193,7 +34193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -34285,7 +34285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -34377,7 +34377,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="345" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -34469,7 +34469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -34561,7 +34561,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="347" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -34653,7 +34653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="348" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -34745,7 +34745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -34837,7 +34837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="350" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -34929,7 +34929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="351" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -35021,7 +35021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -35113,7 +35113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -35205,7 +35205,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="354" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -35297,7 +35297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -35389,7 +35389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -35481,7 +35481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="357" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -35573,7 +35573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -35665,7 +35665,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="359" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -35757,7 +35757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -35849,7 +35849,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="361" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -35941,7 +35941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="362" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -36033,7 +36033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -36125,7 +36125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="364" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -36309,7 +36309,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="366" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -36401,7 +36401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="367" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -36493,7 +36493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -36585,7 +36585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -36677,7 +36677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="370" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -36769,7 +36769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="371" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -36861,7 +36861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -36953,7 +36953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -37045,7 +37045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -37137,7 +37137,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="375" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -37229,7 +37229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -37321,7 +37321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -37413,7 +37413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="378" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -37505,7 +37505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -37597,7 +37597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="380" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -37689,7 +37689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="381" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -37781,7 +37781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -37873,7 +37873,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="383" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -37965,7 +37965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -38057,7 +38057,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="385" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -38149,7 +38149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="386" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -38241,7 +38241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -38333,7 +38333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="388" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -38425,7 +38425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="389" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -38517,7 +38517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -38609,7 +38609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -38701,7 +38701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -38793,7 +38793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -38885,7 +38885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="394" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -38977,7 +38977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -39069,7 +39069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="396" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -39161,7 +39161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -39253,7 +39253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -39345,7 +39345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="399" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -39437,7 +39437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -39529,7 +39529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -39621,7 +39621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -39713,7 +39713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -39805,7 +39805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -39897,7 +39897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -39989,7 +39989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="406" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -40081,7 +40081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -40173,7 +40173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -40265,7 +40265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="409" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -40357,7 +40357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -40449,7 +40449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -40541,7 +40541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -40633,7 +40633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -40725,7 +40725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="414" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -40817,12 +40817,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>516</v>
+        <v>601</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>36</v>
@@ -40909,15 +40909,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="416" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C416" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="C416" s="4" t="s">
-        <v>518</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>81</v>
@@ -41001,12 +41001,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>21</v>
@@ -41093,12 +41093,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>141</v>
@@ -41185,12 +41185,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>148</v>
@@ -41277,12 +41277,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>40</v>
@@ -41369,12 +41369,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="421" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>111</v>
@@ -41461,12 +41461,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>445</v>
@@ -41553,12 +41553,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="423" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>219</v>
@@ -41645,12 +41645,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>21</v>
@@ -41737,12 +41737,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>36</v>
@@ -41829,12 +41829,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>21</v>
@@ -41921,12 +41921,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>21</v>
@@ -42013,12 +42013,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>302</v>
@@ -42105,12 +42105,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="429" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>491</v>
@@ -42197,7 +42197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -42289,12 +42289,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="431" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>119</v>
@@ -42381,12 +42381,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>21</v>
@@ -42473,12 +42473,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>21</v>
@@ -42565,7 +42565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -42657,12 +42657,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="435" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>21</v>
@@ -42749,12 +42749,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>219</v>
@@ -42841,12 +42841,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>61</v>
@@ -42933,12 +42933,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>491</v>
@@ -43025,12 +43025,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>21</v>
@@ -43117,12 +43117,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>21</v>
@@ -43209,12 +43209,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>95</v>
@@ -43301,12 +43301,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>21</v>
@@ -43393,12 +43393,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>21</v>
@@ -43485,12 +43485,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>21</v>
@@ -43577,12 +43577,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="445" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>177</v>
@@ -43669,12 +43669,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="446" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>21</v>
@@ -43761,12 +43761,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>21</v>
@@ -43851,12 +43851,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>61</v>
@@ -43941,12 +43941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>111</v>
@@ -44033,12 +44033,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>59</v>
@@ -44125,12 +44125,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>36</v>
@@ -44217,12 +44217,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>66</v>
@@ -44309,12 +44309,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="453" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>177</v>
@@ -44399,12 +44399,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>27</v>
@@ -44491,12 +44491,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>66</v>
@@ -44583,12 +44583,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>21</v>
@@ -44675,12 +44675,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>196</v>
@@ -44767,12 +44767,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>21</v>
@@ -44859,12 +44859,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>21</v>
@@ -44951,12 +44951,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>21</v>
@@ -45043,12 +45043,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>170</v>
@@ -45135,12 +45135,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>66</v>
@@ -45225,12 +45225,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>36</v>
@@ -45317,12 +45317,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>154</v>
@@ -45409,12 +45409,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>74</v>
@@ -45501,15 +45501,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C466" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="C466" s="4" t="s">
-        <v>566</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>75</v>
@@ -45593,12 +45593,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>27</v>
@@ -45685,12 +45685,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>157</v>
@@ -45777,12 +45777,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>21</v>
@@ -45869,12 +45869,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>21</v>
@@ -45961,12 +45961,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>27</v>
@@ -46053,12 +46053,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>61</v>
@@ -46145,12 +46145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>21</v>
@@ -46237,12 +46237,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>21</v>
@@ -46329,15 +46329,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C475" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="C475" s="4" t="s">
-        <v>576</v>
       </c>
       <c r="D475" s="4" t="s">
         <v>67</v>
@@ -46419,12 +46419,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>40</v>
@@ -46511,12 +46511,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>170</v>
@@ -46603,18 +46603,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>170</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E478" s="4" t="s">
         <v>34</v>
@@ -46695,12 +46695,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>157</v>
@@ -46787,12 +46787,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>460</v>
@@ -46879,12 +46879,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>40</v>
@@ -46971,12 +46971,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>86</v>
@@ -47063,12 +47063,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>21</v>
@@ -47155,12 +47155,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>21</v>
@@ -47247,12 +47247,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>445</v>
@@ -47339,12 +47339,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>299</v>
@@ -47429,12 +47429,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>163</v>
@@ -47519,18 +47519,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D488" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E488" s="4" t="s">
         <v>37</v>
@@ -47611,12 +47611,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>21</v>
@@ -47701,12 +47701,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>21</v>
@@ -47791,7 +47791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -47881,12 +47881,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>21</v>
@@ -47971,12 +47971,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>102</v>
@@ -48063,12 +48063,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>21</v>
@@ -48155,12 +48155,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>21</v>
@@ -48245,15 +48245,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C496" s="4" t="s">
         <v>596</v>
-      </c>
-      <c r="C496" s="4" t="s">
-        <v>597</v>
       </c>
       <c r="D496" s="4" t="s">
         <v>46</v>
@@ -48337,12 +48337,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="497" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>21</v>
@@ -48427,12 +48427,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>36</v>
@@ -48517,12 +48517,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>21</v>
@@ -48609,12 +48609,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>163</v>
@@ -48701,7 +48701,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:30" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/england/20/england_passing.xlsx
+++ b/data/league_data/england/20/england_passing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/england/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E278DF86-C4C5-A746-B6E7-8884B9307201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F398C8A9-DBA0-2047-8A6D-C9F40C9BCECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1798,9 +1798,6 @@
     <t>Josh Martin</t>
   </si>
   <si>
-    <t>João Pedro</t>
-  </si>
-  <si>
     <t>Patrick Roberts</t>
   </si>
   <si>
@@ -1826,6 +1823,9 @@
   </si>
   <si>
     <t>Jota Peleteiro</t>
+  </si>
+  <si>
+    <t>João Pedro Junqueira</t>
   </si>
 </sst>
 </file>
@@ -2695,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="B415" sqref="B415"/>
+    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="B493" sqref="B493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40822,7 +40822,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>36</v>
@@ -47976,7 +47976,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>102</v>
@@ -48068,7 +48068,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>21</v>
@@ -48160,7 +48160,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>21</v>
@@ -48250,10 +48250,10 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C496" s="4" t="s">
         <v>595</v>
-      </c>
-      <c r="C496" s="4" t="s">
-        <v>596</v>
       </c>
       <c r="D496" s="4" t="s">
         <v>46</v>
@@ -48342,7 +48342,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>21</v>
@@ -48432,7 +48432,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>36</v>
@@ -48522,7 +48522,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>21</v>
@@ -48614,7 +48614,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>163</v>
